--- a/ProDS2/Prediction/iterasi5.xlsx
+++ b/ProDS2/Prediction/iterasi5.xlsx
@@ -453,7 +453,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>river</t>
+          <t>grassland</t>
         </is>
       </c>
     </row>
@@ -465,7 +465,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>agriculture</t>
+          <t>grassland</t>
         </is>
       </c>
     </row>
@@ -537,7 +537,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>land_without_scrub</t>
+          <t>river</t>
         </is>
       </c>
     </row>
@@ -717,7 +717,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>grassland</t>
+          <t>forest</t>
         </is>
       </c>
     </row>
@@ -969,7 +969,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>grassland</t>
+          <t>road_n_railway</t>
         </is>
       </c>
     </row>
@@ -981,7 +981,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>river</t>
+          <t>crop</t>
         </is>
       </c>
     </row>
@@ -1029,7 +1029,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>land_without_scrub</t>
+          <t>grassland</t>
         </is>
       </c>
     </row>
@@ -1137,7 +1137,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>land_without_scrub</t>
+          <t>tank</t>
         </is>
       </c>
     </row>
@@ -1257,7 +1257,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>crop</t>
+          <t>land_without_scrub</t>
         </is>
       </c>
     </row>
@@ -1401,7 +1401,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>road_n_railway</t>
+          <t>grassland</t>
         </is>
       </c>
     </row>
@@ -1569,7 +1569,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>agriculture</t>
+          <t>grassland</t>
         </is>
       </c>
     </row>
@@ -2229,7 +2229,7 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>grassland</t>
+          <t>road_n_railway</t>
         </is>
       </c>
     </row>
@@ -2601,7 +2601,7 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>river</t>
+          <t>road_n_railway</t>
         </is>
       </c>
     </row>
@@ -2649,7 +2649,7 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>river</t>
+          <t>grassland</t>
         </is>
       </c>
     </row>
@@ -2685,7 +2685,7 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>agriculture</t>
+          <t>grassland</t>
         </is>
       </c>
     </row>
@@ -2745,7 +2745,7 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>grassland</t>
+          <t>land_without_scrub</t>
         </is>
       </c>
     </row>
@@ -2805,7 +2805,7 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>land_without_scrub</t>
+          <t>grassland</t>
         </is>
       </c>
     </row>
@@ -3429,7 +3429,7 @@
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>agriculture</t>
+          <t>grassland</t>
         </is>
       </c>
     </row>
@@ -3513,7 +3513,7 @@
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>forest</t>
+          <t>agriculture</t>
         </is>
       </c>
     </row>
@@ -3633,7 +3633,7 @@
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>land_without_scrub</t>
+          <t>crop</t>
         </is>
       </c>
     </row>
@@ -3741,7 +3741,7 @@
       </c>
       <c r="B276" t="inlineStr">
         <is>
-          <t>river</t>
+          <t>road_n_railway</t>
         </is>
       </c>
     </row>
@@ -3837,7 +3837,7 @@
       </c>
       <c r="B284" t="inlineStr">
         <is>
-          <t>road_n_railway</t>
+          <t>land_without_scrub</t>
         </is>
       </c>
     </row>
@@ -4053,7 +4053,7 @@
       </c>
       <c r="B302" t="inlineStr">
         <is>
-          <t>river</t>
+          <t>land_without_scrub</t>
         </is>
       </c>
     </row>
@@ -4341,7 +4341,7 @@
       </c>
       <c r="B326" t="inlineStr">
         <is>
-          <t>land_without_scrub</t>
+          <t>tank</t>
         </is>
       </c>
     </row>
@@ -4425,7 +4425,7 @@
       </c>
       <c r="B333" t="inlineStr">
         <is>
-          <t>land_without_scrub</t>
+          <t>road_n_railway</t>
         </is>
       </c>
     </row>
@@ -4641,7 +4641,7 @@
       </c>
       <c r="B351" t="inlineStr">
         <is>
-          <t>forest</t>
+          <t>agriculture</t>
         </is>
       </c>
     </row>
@@ -4821,7 +4821,7 @@
       </c>
       <c r="B366" t="inlineStr">
         <is>
-          <t>road_n_railway</t>
+          <t>crop</t>
         </is>
       </c>
     </row>
@@ -5217,7 +5217,7 @@
       </c>
       <c r="B399" t="inlineStr">
         <is>
-          <t>grassland</t>
+          <t>land_without_scrub</t>
         </is>
       </c>
     </row>
@@ -5373,7 +5373,7 @@
       </c>
       <c r="B412" t="inlineStr">
         <is>
-          <t>crop</t>
+          <t>land_without_scrub</t>
         </is>
       </c>
     </row>
@@ -5577,7 +5577,7 @@
       </c>
       <c r="B429" t="inlineStr">
         <is>
-          <t>land_without_scrub</t>
+          <t>forest</t>
         </is>
       </c>
     </row>
@@ -5661,7 +5661,7 @@
       </c>
       <c r="B436" t="inlineStr">
         <is>
-          <t>grassland</t>
+          <t>land_without_scrub</t>
         </is>
       </c>
     </row>
@@ -5721,7 +5721,7 @@
       </c>
       <c r="B441" t="inlineStr">
         <is>
-          <t>river</t>
+          <t>land_without_scrub</t>
         </is>
       </c>
     </row>
@@ -5793,7 +5793,7 @@
       </c>
       <c r="B447" t="inlineStr">
         <is>
-          <t>road_n_railway</t>
+          <t>land_without_scrub</t>
         </is>
       </c>
     </row>
@@ -6069,7 +6069,7 @@
       </c>
       <c r="B470" t="inlineStr">
         <is>
-          <t>grassland</t>
+          <t>agriculture</t>
         </is>
       </c>
     </row>
@@ -6285,7 +6285,7 @@
       </c>
       <c r="B488" t="inlineStr">
         <is>
-          <t>crop</t>
+          <t>river</t>
         </is>
       </c>
     </row>
@@ -6345,7 +6345,7 @@
       </c>
       <c r="B493" t="inlineStr">
         <is>
-          <t>crop</t>
+          <t>land_without_scrub</t>
         </is>
       </c>
     </row>
@@ -6405,7 +6405,7 @@
       </c>
       <c r="B498" t="inlineStr">
         <is>
-          <t>river</t>
+          <t>road_n_railway</t>
         </is>
       </c>
     </row>
@@ -7173,7 +7173,7 @@
       </c>
       <c r="B562" t="inlineStr">
         <is>
-          <t>crop</t>
+          <t>land_without_scrub</t>
         </is>
       </c>
     </row>
@@ -7533,7 +7533,7 @@
       </c>
       <c r="B592" t="inlineStr">
         <is>
-          <t>crop</t>
+          <t>road_n_railway</t>
         </is>
       </c>
     </row>
@@ -7557,7 +7557,7 @@
       </c>
       <c r="B594" t="inlineStr">
         <is>
-          <t>road_n_railway</t>
+          <t>river</t>
         </is>
       </c>
     </row>
@@ -7917,7 +7917,7 @@
       </c>
       <c r="B624" t="inlineStr">
         <is>
-          <t>river</t>
+          <t>road_n_railway</t>
         </is>
       </c>
     </row>
@@ -8169,7 +8169,7 @@
       </c>
       <c r="B645" t="inlineStr">
         <is>
-          <t>river</t>
+          <t>road_n_railway</t>
         </is>
       </c>
     </row>
@@ -8181,7 +8181,7 @@
       </c>
       <c r="B646" t="inlineStr">
         <is>
-          <t>river</t>
+          <t>land_without_scrub</t>
         </is>
       </c>
     </row>
@@ -8277,7 +8277,7 @@
       </c>
       <c r="B654" t="inlineStr">
         <is>
-          <t>river</t>
+          <t>crop</t>
         </is>
       </c>
     </row>
@@ -8481,7 +8481,7 @@
       </c>
       <c r="B671" t="inlineStr">
         <is>
-          <t>crop</t>
+          <t>road_n_railway</t>
         </is>
       </c>
     </row>
@@ -8757,7 +8757,7 @@
       </c>
       <c r="B694" t="inlineStr">
         <is>
-          <t>road_n_railway</t>
+          <t>settlement</t>
         </is>
       </c>
     </row>
@@ -9033,7 +9033,7 @@
       </c>
       <c r="B717" t="inlineStr">
         <is>
-          <t>river</t>
+          <t>road_n_railway</t>
         </is>
       </c>
     </row>
@@ -9273,7 +9273,7 @@
       </c>
       <c r="B737" t="inlineStr">
         <is>
-          <t>crop</t>
+          <t>land_without_scrub</t>
         </is>
       </c>
     </row>
@@ -9309,7 +9309,7 @@
       </c>
       <c r="B740" t="inlineStr">
         <is>
-          <t>land_without_scrub</t>
+          <t>crop</t>
         </is>
       </c>
     </row>
@@ -9489,7 +9489,7 @@
       </c>
       <c r="B755" t="inlineStr">
         <is>
-          <t>river</t>
+          <t>forest</t>
         </is>
       </c>
     </row>
@@ -9969,7 +9969,7 @@
       </c>
       <c r="B795" t="inlineStr">
         <is>
-          <t>grassland</t>
+          <t>river</t>
         </is>
       </c>
     </row>
@@ -10341,7 +10341,7 @@
       </c>
       <c r="B826" t="inlineStr">
         <is>
-          <t>river</t>
+          <t>crop</t>
         </is>
       </c>
     </row>
@@ -10389,7 +10389,7 @@
       </c>
       <c r="B830" t="inlineStr">
         <is>
-          <t>river</t>
+          <t>crop</t>
         </is>
       </c>
     </row>
@@ -10713,7 +10713,7 @@
       </c>
       <c r="B857" t="inlineStr">
         <is>
-          <t>river</t>
+          <t>forest</t>
         </is>
       </c>
     </row>
@@ -10845,7 +10845,7 @@
       </c>
       <c r="B868" t="inlineStr">
         <is>
-          <t>agriculture</t>
+          <t>forest</t>
         </is>
       </c>
     </row>
@@ -11145,7 +11145,7 @@
       </c>
       <c r="B893" t="inlineStr">
         <is>
-          <t>grassland</t>
+          <t>road_n_railway</t>
         </is>
       </c>
     </row>
@@ -11169,7 +11169,7 @@
       </c>
       <c r="B895" t="inlineStr">
         <is>
-          <t>land_without_scrub</t>
+          <t>road_n_railway</t>
         </is>
       </c>
     </row>
@@ -11457,7 +11457,7 @@
       </c>
       <c r="B919" t="inlineStr">
         <is>
-          <t>land_without_scrub</t>
+          <t>grassland</t>
         </is>
       </c>
     </row>
@@ -11637,7 +11637,7 @@
       </c>
       <c r="B934" t="inlineStr">
         <is>
-          <t>grassland</t>
+          <t>land_without_scrub</t>
         </is>
       </c>
     </row>
@@ -12045,7 +12045,7 @@
       </c>
       <c r="B968" t="inlineStr">
         <is>
-          <t>road_n_railway</t>
+          <t>land_without_scrub</t>
         </is>
       </c>
     </row>
@@ -12081,7 +12081,7 @@
       </c>
       <c r="B971" t="inlineStr">
         <is>
-          <t>river</t>
+          <t>crop</t>
         </is>
       </c>
     </row>
@@ -12273,7 +12273,7 @@
       </c>
       <c r="B987" t="inlineStr">
         <is>
-          <t>settlement</t>
+          <t>road_n_railway</t>
         </is>
       </c>
     </row>
@@ -12513,7 +12513,7 @@
       </c>
       <c r="B1007" t="inlineStr">
         <is>
-          <t>road_n_railway</t>
+          <t>land_without_scrub</t>
         </is>
       </c>
     </row>
@@ -12669,7 +12669,7 @@
       </c>
       <c r="B1020" t="inlineStr">
         <is>
-          <t>agriculture</t>
+          <t>grassland</t>
         </is>
       </c>
     </row>
@@ -12741,7 +12741,7 @@
       </c>
       <c r="B1026" t="inlineStr">
         <is>
-          <t>settlement</t>
+          <t>road_n_railway</t>
         </is>
       </c>
     </row>
@@ -12909,7 +12909,7 @@
       </c>
       <c r="B1040" t="inlineStr">
         <is>
-          <t>land_without_scrub</t>
+          <t>grassland</t>
         </is>
       </c>
     </row>
@@ -13197,7 +13197,7 @@
       </c>
       <c r="B1064" t="inlineStr">
         <is>
-          <t>river</t>
+          <t>grassland</t>
         </is>
       </c>
     </row>
@@ -13617,7 +13617,7 @@
       </c>
       <c r="B1099" t="inlineStr">
         <is>
-          <t>grassland</t>
+          <t>land_without_scrub</t>
         </is>
       </c>
     </row>
@@ -13689,7 +13689,7 @@
       </c>
       <c r="B1105" t="inlineStr">
         <is>
-          <t>land_without_scrub</t>
+          <t>river</t>
         </is>
       </c>
     </row>
@@ -13749,7 +13749,7 @@
       </c>
       <c r="B1110" t="inlineStr">
         <is>
-          <t>land_without_scrub</t>
+          <t>grassland</t>
         </is>
       </c>
     </row>
@@ -13833,7 +13833,7 @@
       </c>
       <c r="B1117" t="inlineStr">
         <is>
-          <t>river</t>
+          <t>crop</t>
         </is>
       </c>
     </row>
@@ -13977,7 +13977,7 @@
       </c>
       <c r="B1129" t="inlineStr">
         <is>
-          <t>settlement</t>
+          <t>grassland</t>
         </is>
       </c>
     </row>
@@ -14001,7 +14001,7 @@
       </c>
       <c r="B1131" t="inlineStr">
         <is>
-          <t>river</t>
+          <t>road_n_railway</t>
         </is>
       </c>
     </row>
@@ -14073,7 +14073,7 @@
       </c>
       <c r="B1137" t="inlineStr">
         <is>
-          <t>land_without_scrub</t>
+          <t>river</t>
         </is>
       </c>
     </row>
@@ -14121,7 +14121,7 @@
       </c>
       <c r="B1141" t="inlineStr">
         <is>
-          <t>agriculture</t>
+          <t>river</t>
         </is>
       </c>
     </row>
@@ -14265,7 +14265,7 @@
       </c>
       <c r="B1153" t="inlineStr">
         <is>
-          <t>land_without_scrub</t>
+          <t>grassland</t>
         </is>
       </c>
     </row>
@@ -14709,7 +14709,7 @@
       </c>
       <c r="B1190" t="inlineStr">
         <is>
-          <t>land_without_scrub</t>
+          <t>crop</t>
         </is>
       </c>
     </row>
@@ -14817,7 +14817,7 @@
       </c>
       <c r="B1199" t="inlineStr">
         <is>
-          <t>land_without_scrub</t>
+          <t>grassland</t>
         </is>
       </c>
     </row>
@@ -14841,7 +14841,7 @@
       </c>
       <c r="B1201" t="inlineStr">
         <is>
-          <t>land_without_scrub</t>
+          <t>road_n_railway</t>
         </is>
       </c>
     </row>
@@ -15813,7 +15813,7 @@
       </c>
       <c r="B1282" t="inlineStr">
         <is>
-          <t>land_without_scrub</t>
+          <t>agriculture</t>
         </is>
       </c>
     </row>
@@ -16125,7 +16125,7 @@
       </c>
       <c r="B1308" t="inlineStr">
         <is>
-          <t>grassland</t>
+          <t>agriculture</t>
         </is>
       </c>
     </row>
@@ -16341,7 +16341,7 @@
       </c>
       <c r="B1326" t="inlineStr">
         <is>
-          <t>river</t>
+          <t>forest</t>
         </is>
       </c>
     </row>
@@ -16485,7 +16485,7 @@
       </c>
       <c r="B1338" t="inlineStr">
         <is>
-          <t>road_n_railway</t>
+          <t>crop</t>
         </is>
       </c>
     </row>
@@ -16593,7 +16593,7 @@
       </c>
       <c r="B1347" t="inlineStr">
         <is>
-          <t>river</t>
+          <t>grassland</t>
         </is>
       </c>
     </row>
@@ -16701,7 +16701,7 @@
       </c>
       <c r="B1356" t="inlineStr">
         <is>
-          <t>river</t>
+          <t>grassland</t>
         </is>
       </c>
     </row>
@@ -16725,7 +16725,7 @@
       </c>
       <c r="B1358" t="inlineStr">
         <is>
-          <t>crop</t>
+          <t>land_without_scrub</t>
         </is>
       </c>
     </row>
@@ -16785,7 +16785,7 @@
       </c>
       <c r="B1363" t="inlineStr">
         <is>
-          <t>agriculture</t>
+          <t>forest</t>
         </is>
       </c>
     </row>
@@ -16857,7 +16857,7 @@
       </c>
       <c r="B1369" t="inlineStr">
         <is>
-          <t>crop</t>
+          <t>land_without_scrub</t>
         </is>
       </c>
     </row>
@@ -16881,7 +16881,7 @@
       </c>
       <c r="B1371" t="inlineStr">
         <is>
-          <t>river</t>
+          <t>forest</t>
         </is>
       </c>
     </row>
@@ -17133,7 +17133,7 @@
       </c>
       <c r="B1392" t="inlineStr">
         <is>
-          <t>grassland</t>
+          <t>land_without_scrub</t>
         </is>
       </c>
     </row>
@@ -17277,7 +17277,7 @@
       </c>
       <c r="B1404" t="inlineStr">
         <is>
-          <t>grassland</t>
+          <t>agriculture</t>
         </is>
       </c>
     </row>
@@ -17565,7 +17565,7 @@
       </c>
       <c r="B1428" t="inlineStr">
         <is>
-          <t>grassland</t>
+          <t>river</t>
         </is>
       </c>
     </row>
@@ -17625,7 +17625,7 @@
       </c>
       <c r="B1433" t="inlineStr">
         <is>
-          <t>crop</t>
+          <t>grassland</t>
         </is>
       </c>
     </row>

--- a/ProDS2/Prediction/iterasi5.xlsx
+++ b/ProDS2/Prediction/iterasi5.xlsx
@@ -465,7 +465,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>grassland</t>
+          <t>agriculture</t>
         </is>
       </c>
     </row>
@@ -525,7 +525,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>river</t>
+          <t>tank</t>
         </is>
       </c>
     </row>
@@ -621,7 +621,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>agriculture</t>
+          <t>land_without_scrub</t>
         </is>
       </c>
     </row>
@@ -681,7 +681,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>crop</t>
+          <t>river</t>
         </is>
       </c>
     </row>
@@ -789,7 +789,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>agriculture</t>
+          <t>forest</t>
         </is>
       </c>
     </row>
@@ -945,7 +945,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>river</t>
+          <t>land_without_scrub</t>
         </is>
       </c>
     </row>
@@ -1137,7 +1137,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>tank</t>
+          <t>road_n_railway</t>
         </is>
       </c>
     </row>
@@ -1245,7 +1245,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>crop</t>
+          <t>river</t>
         </is>
       </c>
     </row>
@@ -1257,7 +1257,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>land_without_scrub</t>
+          <t>crop</t>
         </is>
       </c>
     </row>
@@ -1329,7 +1329,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>river</t>
+          <t>road_n_railway</t>
         </is>
       </c>
     </row>
@@ -1401,7 +1401,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>grassland</t>
+          <t>road_n_railway</t>
         </is>
       </c>
     </row>
@@ -1557,7 +1557,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>crop</t>
+          <t>river</t>
         </is>
       </c>
     </row>
@@ -1569,7 +1569,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>grassland</t>
+          <t>agriculture</t>
         </is>
       </c>
     </row>
@@ -1653,7 +1653,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>land_without_scrub</t>
+          <t>grassland</t>
         </is>
       </c>
     </row>
@@ -1905,7 +1905,7 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>grassland</t>
+          <t>road_n_railway</t>
         </is>
       </c>
     </row>
@@ -1989,7 +1989,7 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>grassland</t>
+          <t>road_n_railway</t>
         </is>
       </c>
     </row>
@@ -2121,7 +2121,7 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>grassland</t>
+          <t>land_without_scrub</t>
         </is>
       </c>
     </row>
@@ -2157,7 +2157,7 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>settlement</t>
+          <t>road_n_railway</t>
         </is>
       </c>
     </row>
@@ -2277,7 +2277,7 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>river</t>
+          <t>crop</t>
         </is>
       </c>
     </row>
@@ -2325,7 +2325,7 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>road_n_railway</t>
+          <t>settlement</t>
         </is>
       </c>
     </row>
@@ -2373,7 +2373,7 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>land_without_scrub</t>
+          <t>crop</t>
         </is>
       </c>
     </row>
@@ -2493,7 +2493,7 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>land_without_scrub</t>
+          <t>grassland</t>
         </is>
       </c>
     </row>
@@ -2625,7 +2625,7 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>land_without_scrub</t>
+          <t>crop</t>
         </is>
       </c>
     </row>
@@ -2649,7 +2649,7 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>grassland</t>
+          <t>river</t>
         </is>
       </c>
     </row>
@@ -2685,7 +2685,7 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>grassland</t>
+          <t>crop</t>
         </is>
       </c>
     </row>
@@ -2721,7 +2721,7 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>settlement</t>
+          <t>road_n_railway</t>
         </is>
       </c>
     </row>
@@ -2805,7 +2805,7 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>grassland</t>
+          <t>land_without_scrub</t>
         </is>
       </c>
     </row>
@@ -2877,7 +2877,7 @@
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>forest</t>
+          <t>agriculture</t>
         </is>
       </c>
     </row>
@@ -2949,7 +2949,7 @@
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>forest</t>
+          <t>agriculture</t>
         </is>
       </c>
     </row>
@@ -3045,7 +3045,7 @@
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>river</t>
+          <t>tank</t>
         </is>
       </c>
     </row>
@@ -3357,7 +3357,7 @@
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>road_n_railway</t>
+          <t>river</t>
         </is>
       </c>
     </row>
@@ -3549,7 +3549,7 @@
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>road_n_railway</t>
+          <t>crop</t>
         </is>
       </c>
     </row>
@@ -3741,7 +3741,7 @@
       </c>
       <c r="B276" t="inlineStr">
         <is>
-          <t>road_n_railway</t>
+          <t>land_without_scrub</t>
         </is>
       </c>
     </row>
@@ -3813,7 +3813,7 @@
       </c>
       <c r="B282" t="inlineStr">
         <is>
-          <t>crop</t>
+          <t>river</t>
         </is>
       </c>
     </row>
@@ -3861,7 +3861,7 @@
       </c>
       <c r="B286" t="inlineStr">
         <is>
-          <t>forest</t>
+          <t>agriculture</t>
         </is>
       </c>
     </row>
@@ -3933,7 +3933,7 @@
       </c>
       <c r="B292" t="inlineStr">
         <is>
-          <t>crop</t>
+          <t>river</t>
         </is>
       </c>
     </row>
@@ -4089,7 +4089,7 @@
       </c>
       <c r="B305" t="inlineStr">
         <is>
-          <t>forest</t>
+          <t>agriculture</t>
         </is>
       </c>
     </row>
@@ -4137,7 +4137,7 @@
       </c>
       <c r="B309" t="inlineStr">
         <is>
-          <t>tank</t>
+          <t>road_n_railway</t>
         </is>
       </c>
     </row>
@@ -4161,7 +4161,7 @@
       </c>
       <c r="B311" t="inlineStr">
         <is>
-          <t>grassland</t>
+          <t>settlement</t>
         </is>
       </c>
     </row>
@@ -4209,7 +4209,7 @@
       </c>
       <c r="B315" t="inlineStr">
         <is>
-          <t>settlement</t>
+          <t>grassland</t>
         </is>
       </c>
     </row>
@@ -4293,7 +4293,7 @@
       </c>
       <c r="B322" t="inlineStr">
         <is>
-          <t>land_without_scrub</t>
+          <t>grassland</t>
         </is>
       </c>
     </row>
@@ -4365,7 +4365,7 @@
       </c>
       <c r="B328" t="inlineStr">
         <is>
-          <t>grassland</t>
+          <t>river</t>
         </is>
       </c>
     </row>
@@ -4425,7 +4425,7 @@
       </c>
       <c r="B333" t="inlineStr">
         <is>
-          <t>road_n_railway</t>
+          <t>river</t>
         </is>
       </c>
     </row>
@@ -4545,7 +4545,7 @@
       </c>
       <c r="B343" t="inlineStr">
         <is>
-          <t>grassland</t>
+          <t>land_without_scrub</t>
         </is>
       </c>
     </row>
@@ -4821,7 +4821,7 @@
       </c>
       <c r="B366" t="inlineStr">
         <is>
-          <t>crop</t>
+          <t>road_n_railway</t>
         </is>
       </c>
     </row>
@@ -4905,7 +4905,7 @@
       </c>
       <c r="B373" t="inlineStr">
         <is>
-          <t>road_n_railway</t>
+          <t>river</t>
         </is>
       </c>
     </row>
@@ -5133,7 +5133,7 @@
       </c>
       <c r="B392" t="inlineStr">
         <is>
-          <t>river</t>
+          <t>land_without_scrub</t>
         </is>
       </c>
     </row>
@@ -5157,7 +5157,7 @@
       </c>
       <c r="B394" t="inlineStr">
         <is>
-          <t>river</t>
+          <t>crop</t>
         </is>
       </c>
     </row>
@@ -5373,7 +5373,7 @@
       </c>
       <c r="B412" t="inlineStr">
         <is>
-          <t>land_without_scrub</t>
+          <t>crop</t>
         </is>
       </c>
     </row>
@@ -5421,7 +5421,7 @@
       </c>
       <c r="B416" t="inlineStr">
         <is>
-          <t>river</t>
+          <t>crop</t>
         </is>
       </c>
     </row>
@@ -5481,7 +5481,7 @@
       </c>
       <c r="B421" t="inlineStr">
         <is>
-          <t>forest</t>
+          <t>agriculture</t>
         </is>
       </c>
     </row>
@@ -5577,7 +5577,7 @@
       </c>
       <c r="B429" t="inlineStr">
         <is>
-          <t>forest</t>
+          <t>land_without_scrub</t>
         </is>
       </c>
     </row>
@@ -5613,7 +5613,7 @@
       </c>
       <c r="B432" t="inlineStr">
         <is>
-          <t>forest</t>
+          <t>agriculture</t>
         </is>
       </c>
     </row>
@@ -5649,7 +5649,7 @@
       </c>
       <c r="B435" t="inlineStr">
         <is>
-          <t>land_without_scrub</t>
+          <t>forest</t>
         </is>
       </c>
     </row>
@@ -5721,7 +5721,7 @@
       </c>
       <c r="B441" t="inlineStr">
         <is>
-          <t>land_without_scrub</t>
+          <t>river</t>
         </is>
       </c>
     </row>
@@ -5901,7 +5901,7 @@
       </c>
       <c r="B456" t="inlineStr">
         <is>
-          <t>land_without_scrub</t>
+          <t>crop</t>
         </is>
       </c>
     </row>
@@ -6321,7 +6321,7 @@
       </c>
       <c r="B491" t="inlineStr">
         <is>
-          <t>road_n_railway</t>
+          <t>land_without_scrub</t>
         </is>
       </c>
     </row>
@@ -6345,7 +6345,7 @@
       </c>
       <c r="B493" t="inlineStr">
         <is>
-          <t>land_without_scrub</t>
+          <t>crop</t>
         </is>
       </c>
     </row>
@@ -6405,7 +6405,7 @@
       </c>
       <c r="B498" t="inlineStr">
         <is>
-          <t>road_n_railway</t>
+          <t>river</t>
         </is>
       </c>
     </row>
@@ -6453,7 +6453,7 @@
       </c>
       <c r="B502" t="inlineStr">
         <is>
-          <t>river</t>
+          <t>grassland</t>
         </is>
       </c>
     </row>
@@ -6621,7 +6621,7 @@
       </c>
       <c r="B516" t="inlineStr">
         <is>
-          <t>crop</t>
+          <t>forest</t>
         </is>
       </c>
     </row>
@@ -6657,7 +6657,7 @@
       </c>
       <c r="B519" t="inlineStr">
         <is>
-          <t>river</t>
+          <t>forest</t>
         </is>
       </c>
     </row>
@@ -6741,7 +6741,7 @@
       </c>
       <c r="B526" t="inlineStr">
         <is>
-          <t>agriculture</t>
+          <t>forest</t>
         </is>
       </c>
     </row>
@@ -6801,7 +6801,7 @@
       </c>
       <c r="B531" t="inlineStr">
         <is>
-          <t>road_n_railway</t>
+          <t>river</t>
         </is>
       </c>
     </row>
@@ -6837,7 +6837,7 @@
       </c>
       <c r="B534" t="inlineStr">
         <is>
-          <t>forest</t>
+          <t>agriculture</t>
         </is>
       </c>
     </row>
@@ -6933,7 +6933,7 @@
       </c>
       <c r="B542" t="inlineStr">
         <is>
-          <t>crop</t>
+          <t>road_n_railway</t>
         </is>
       </c>
     </row>
@@ -7017,7 +7017,7 @@
       </c>
       <c r="B549" t="inlineStr">
         <is>
-          <t>crop</t>
+          <t>river</t>
         </is>
       </c>
     </row>
@@ -7173,7 +7173,7 @@
       </c>
       <c r="B562" t="inlineStr">
         <is>
-          <t>land_without_scrub</t>
+          <t>crop</t>
         </is>
       </c>
     </row>
@@ -7245,7 +7245,7 @@
       </c>
       <c r="B568" t="inlineStr">
         <is>
-          <t>grassland</t>
+          <t>agriculture</t>
         </is>
       </c>
     </row>
@@ -7257,7 +7257,7 @@
       </c>
       <c r="B569" t="inlineStr">
         <is>
-          <t>river</t>
+          <t>tank</t>
         </is>
       </c>
     </row>
@@ -7557,7 +7557,7 @@
       </c>
       <c r="B594" t="inlineStr">
         <is>
-          <t>river</t>
+          <t>crop</t>
         </is>
       </c>
     </row>
@@ -7569,7 +7569,7 @@
       </c>
       <c r="B595" t="inlineStr">
         <is>
-          <t>river</t>
+          <t>road_n_railway</t>
         </is>
       </c>
     </row>
@@ -7605,7 +7605,7 @@
       </c>
       <c r="B598" t="inlineStr">
         <is>
-          <t>land_without_scrub</t>
+          <t>tank</t>
         </is>
       </c>
     </row>
@@ -7845,7 +7845,7 @@
       </c>
       <c r="B618" t="inlineStr">
         <is>
-          <t>road_n_railway</t>
+          <t>grassland</t>
         </is>
       </c>
     </row>
@@ -7857,7 +7857,7 @@
       </c>
       <c r="B619" t="inlineStr">
         <is>
-          <t>river</t>
+          <t>land_without_scrub</t>
         </is>
       </c>
     </row>
@@ -7965,7 +7965,7 @@
       </c>
       <c r="B628" t="inlineStr">
         <is>
-          <t>river</t>
+          <t>grassland</t>
         </is>
       </c>
     </row>
@@ -8013,7 +8013,7 @@
       </c>
       <c r="B632" t="inlineStr">
         <is>
-          <t>grassland</t>
+          <t>land_without_scrub</t>
         </is>
       </c>
     </row>
@@ -8025,7 +8025,7 @@
       </c>
       <c r="B633" t="inlineStr">
         <is>
-          <t>forest</t>
+          <t>agriculture</t>
         </is>
       </c>
     </row>
@@ -8037,7 +8037,7 @@
       </c>
       <c r="B634" t="inlineStr">
         <is>
-          <t>grassland</t>
+          <t>crop</t>
         </is>
       </c>
     </row>
@@ -8121,7 +8121,7 @@
       </c>
       <c r="B641" t="inlineStr">
         <is>
-          <t>grassland</t>
+          <t>road_n_railway</t>
         </is>
       </c>
     </row>
@@ -8181,7 +8181,7 @@
       </c>
       <c r="B646" t="inlineStr">
         <is>
-          <t>land_without_scrub</t>
+          <t>crop</t>
         </is>
       </c>
     </row>
@@ -8217,7 +8217,7 @@
       </c>
       <c r="B649" t="inlineStr">
         <is>
-          <t>crop</t>
+          <t>land_without_scrub</t>
         </is>
       </c>
     </row>
@@ -8277,7 +8277,7 @@
       </c>
       <c r="B654" t="inlineStr">
         <is>
-          <t>crop</t>
+          <t>river</t>
         </is>
       </c>
     </row>
@@ -8445,7 +8445,7 @@
       </c>
       <c r="B668" t="inlineStr">
         <is>
-          <t>crop</t>
+          <t>river</t>
         </is>
       </c>
     </row>
@@ -8457,7 +8457,7 @@
       </c>
       <c r="B669" t="inlineStr">
         <is>
-          <t>settlement</t>
+          <t>road_n_railway</t>
         </is>
       </c>
     </row>
@@ -8481,7 +8481,7 @@
       </c>
       <c r="B671" t="inlineStr">
         <is>
-          <t>road_n_railway</t>
+          <t>crop</t>
         </is>
       </c>
     </row>
@@ -8493,7 +8493,7 @@
       </c>
       <c r="B672" t="inlineStr">
         <is>
-          <t>crop</t>
+          <t>land_without_scrub</t>
         </is>
       </c>
     </row>
@@ -8757,7 +8757,7 @@
       </c>
       <c r="B694" t="inlineStr">
         <is>
-          <t>settlement</t>
+          <t>road_n_railway</t>
         </is>
       </c>
     </row>
@@ -8769,7 +8769,7 @@
       </c>
       <c r="B695" t="inlineStr">
         <is>
-          <t>crop</t>
+          <t>river</t>
         </is>
       </c>
     </row>
@@ -8781,7 +8781,7 @@
       </c>
       <c r="B696" t="inlineStr">
         <is>
-          <t>river</t>
+          <t>crop</t>
         </is>
       </c>
     </row>
@@ -9033,7 +9033,7 @@
       </c>
       <c r="B717" t="inlineStr">
         <is>
-          <t>road_n_railway</t>
+          <t>river</t>
         </is>
       </c>
     </row>
@@ -9141,7 +9141,7 @@
       </c>
       <c r="B726" t="inlineStr">
         <is>
-          <t>grassland</t>
+          <t>land_without_scrub</t>
         </is>
       </c>
     </row>
@@ -9249,7 +9249,7 @@
       </c>
       <c r="B735" t="inlineStr">
         <is>
-          <t>land_without_scrub</t>
+          <t>grassland</t>
         </is>
       </c>
     </row>
@@ -9309,7 +9309,7 @@
       </c>
       <c r="B740" t="inlineStr">
         <is>
-          <t>crop</t>
+          <t>river</t>
         </is>
       </c>
     </row>
@@ -9489,7 +9489,7 @@
       </c>
       <c r="B755" t="inlineStr">
         <is>
-          <t>forest</t>
+          <t>river</t>
         </is>
       </c>
     </row>
@@ -9501,7 +9501,7 @@
       </c>
       <c r="B756" t="inlineStr">
         <is>
-          <t>land_without_scrub</t>
+          <t>grassland</t>
         </is>
       </c>
     </row>
@@ -9561,7 +9561,7 @@
       </c>
       <c r="B761" t="inlineStr">
         <is>
-          <t>crop</t>
+          <t>land_without_scrub</t>
         </is>
       </c>
     </row>
@@ -9609,7 +9609,7 @@
       </c>
       <c r="B765" t="inlineStr">
         <is>
-          <t>tank</t>
+          <t>land_without_scrub</t>
         </is>
       </c>
     </row>
@@ -9633,7 +9633,7 @@
       </c>
       <c r="B767" t="inlineStr">
         <is>
-          <t>crop</t>
+          <t>river</t>
         </is>
       </c>
     </row>
@@ -9681,7 +9681,7 @@
       </c>
       <c r="B771" t="inlineStr">
         <is>
-          <t>road_n_railway</t>
+          <t>crop</t>
         </is>
       </c>
     </row>
@@ -9789,7 +9789,7 @@
       </c>
       <c r="B780" t="inlineStr">
         <is>
-          <t>grassland</t>
+          <t>land_without_scrub</t>
         </is>
       </c>
     </row>
@@ -9885,7 +9885,7 @@
       </c>
       <c r="B788" t="inlineStr">
         <is>
-          <t>agriculture</t>
+          <t>forest</t>
         </is>
       </c>
     </row>
@@ -10173,7 +10173,7 @@
       </c>
       <c r="B812" t="inlineStr">
         <is>
-          <t>agriculture</t>
+          <t>grassland</t>
         </is>
       </c>
     </row>
@@ -10221,7 +10221,7 @@
       </c>
       <c r="B816" t="inlineStr">
         <is>
-          <t>crop</t>
+          <t>river</t>
         </is>
       </c>
     </row>
@@ -10341,7 +10341,7 @@
       </c>
       <c r="B826" t="inlineStr">
         <is>
-          <t>crop</t>
+          <t>river</t>
         </is>
       </c>
     </row>
@@ -10461,7 +10461,7 @@
       </c>
       <c r="B836" t="inlineStr">
         <is>
-          <t>river</t>
+          <t>crop</t>
         </is>
       </c>
     </row>
@@ -10545,7 +10545,7 @@
       </c>
       <c r="B843" t="inlineStr">
         <is>
-          <t>tank</t>
+          <t>road_n_railway</t>
         </is>
       </c>
     </row>
@@ -10653,7 +10653,7 @@
       </c>
       <c r="B852" t="inlineStr">
         <is>
-          <t>forest</t>
+          <t>river</t>
         </is>
       </c>
     </row>
@@ -10713,7 +10713,7 @@
       </c>
       <c r="B857" t="inlineStr">
         <is>
-          <t>forest</t>
+          <t>river</t>
         </is>
       </c>
     </row>
@@ -10941,7 +10941,7 @@
       </c>
       <c r="B876" t="inlineStr">
         <is>
-          <t>agriculture</t>
+          <t>land_without_scrub</t>
         </is>
       </c>
     </row>
@@ -11157,7 +11157,7 @@
       </c>
       <c r="B894" t="inlineStr">
         <is>
-          <t>crop</t>
+          <t>land_without_scrub</t>
         </is>
       </c>
     </row>
@@ -11169,7 +11169,7 @@
       </c>
       <c r="B895" t="inlineStr">
         <is>
-          <t>road_n_railway</t>
+          <t>land_without_scrub</t>
         </is>
       </c>
     </row>
@@ -11241,7 +11241,7 @@
       </c>
       <c r="B901" t="inlineStr">
         <is>
-          <t>river</t>
+          <t>forest</t>
         </is>
       </c>
     </row>
@@ -11361,7 +11361,7 @@
       </c>
       <c r="B911" t="inlineStr">
         <is>
-          <t>road_n_railway</t>
+          <t>grassland</t>
         </is>
       </c>
     </row>
@@ -11385,7 +11385,7 @@
       </c>
       <c r="B913" t="inlineStr">
         <is>
-          <t>land_without_scrub</t>
+          <t>forest</t>
         </is>
       </c>
     </row>
@@ -11553,7 +11553,7 @@
       </c>
       <c r="B927" t="inlineStr">
         <is>
-          <t>grassland</t>
+          <t>agriculture</t>
         </is>
       </c>
     </row>
@@ -11637,7 +11637,7 @@
       </c>
       <c r="B934" t="inlineStr">
         <is>
-          <t>land_without_scrub</t>
+          <t>crop</t>
         </is>
       </c>
     </row>
@@ -11709,7 +11709,7 @@
       </c>
       <c r="B940" t="inlineStr">
         <is>
-          <t>land_without_scrub</t>
+          <t>crop</t>
         </is>
       </c>
     </row>
@@ -11769,7 +11769,7 @@
       </c>
       <c r="B945" t="inlineStr">
         <is>
-          <t>grassland</t>
+          <t>settlement</t>
         </is>
       </c>
     </row>
@@ -11805,7 +11805,7 @@
       </c>
       <c r="B948" t="inlineStr">
         <is>
-          <t>settlement</t>
+          <t>grassland</t>
         </is>
       </c>
     </row>
@@ -11853,7 +11853,7 @@
       </c>
       <c r="B952" t="inlineStr">
         <is>
-          <t>crop</t>
+          <t>river</t>
         </is>
       </c>
     </row>
@@ -11973,7 +11973,7 @@
       </c>
       <c r="B962" t="inlineStr">
         <is>
-          <t>road_n_railway</t>
+          <t>land_without_scrub</t>
         </is>
       </c>
     </row>
@@ -12009,7 +12009,7 @@
       </c>
       <c r="B965" t="inlineStr">
         <is>
-          <t>tank</t>
+          <t>river</t>
         </is>
       </c>
     </row>
@@ -12033,7 +12033,7 @@
       </c>
       <c r="B967" t="inlineStr">
         <is>
-          <t>land_without_scrub</t>
+          <t>road_n_railway</t>
         </is>
       </c>
     </row>
@@ -12081,7 +12081,7 @@
       </c>
       <c r="B971" t="inlineStr">
         <is>
-          <t>crop</t>
+          <t>river</t>
         </is>
       </c>
     </row>
@@ -12141,7 +12141,7 @@
       </c>
       <c r="B976" t="inlineStr">
         <is>
-          <t>agriculture</t>
+          <t>grassland</t>
         </is>
       </c>
     </row>
@@ -12417,7 +12417,7 @@
       </c>
       <c r="B999" t="inlineStr">
         <is>
-          <t>crop</t>
+          <t>land_without_scrub</t>
         </is>
       </c>
     </row>
@@ -12465,7 +12465,7 @@
       </c>
       <c r="B1003" t="inlineStr">
         <is>
-          <t>crop</t>
+          <t>river</t>
         </is>
       </c>
     </row>
@@ -12669,7 +12669,7 @@
       </c>
       <c r="B1020" t="inlineStr">
         <is>
-          <t>grassland</t>
+          <t>settlement</t>
         </is>
       </c>
     </row>
@@ -12681,7 +12681,7 @@
       </c>
       <c r="B1021" t="inlineStr">
         <is>
-          <t>crop</t>
+          <t>river</t>
         </is>
       </c>
     </row>
@@ -12933,7 +12933,7 @@
       </c>
       <c r="B1042" t="inlineStr">
         <is>
-          <t>settlement</t>
+          <t>road_n_railway</t>
         </is>
       </c>
     </row>
@@ -13005,7 +13005,7 @@
       </c>
       <c r="B1048" t="inlineStr">
         <is>
-          <t>river</t>
+          <t>crop</t>
         </is>
       </c>
     </row>
@@ -13041,7 +13041,7 @@
       </c>
       <c r="B1051" t="inlineStr">
         <is>
-          <t>crop</t>
+          <t>river</t>
         </is>
       </c>
     </row>
@@ -13257,7 +13257,7 @@
       </c>
       <c r="B1069" t="inlineStr">
         <is>
-          <t>crop</t>
+          <t>land_without_scrub</t>
         </is>
       </c>
     </row>
@@ -13353,7 +13353,7 @@
       </c>
       <c r="B1077" t="inlineStr">
         <is>
-          <t>forest</t>
+          <t>river</t>
         </is>
       </c>
     </row>
@@ -13521,7 +13521,7 @@
       </c>
       <c r="B1091" t="inlineStr">
         <is>
-          <t>crop</t>
+          <t>river</t>
         </is>
       </c>
     </row>
@@ -13557,7 +13557,7 @@
       </c>
       <c r="B1094" t="inlineStr">
         <is>
-          <t>river</t>
+          <t>crop</t>
         </is>
       </c>
     </row>
@@ -13593,7 +13593,7 @@
       </c>
       <c r="B1097" t="inlineStr">
         <is>
-          <t>grassland</t>
+          <t>settlement</t>
         </is>
       </c>
     </row>
@@ -13617,7 +13617,7 @@
       </c>
       <c r="B1099" t="inlineStr">
         <is>
-          <t>land_without_scrub</t>
+          <t>grassland</t>
         </is>
       </c>
     </row>
@@ -13653,7 +13653,7 @@
       </c>
       <c r="B1102" t="inlineStr">
         <is>
-          <t>road_n_railway</t>
+          <t>tank</t>
         </is>
       </c>
     </row>
@@ -13749,7 +13749,7 @@
       </c>
       <c r="B1110" t="inlineStr">
         <is>
-          <t>grassland</t>
+          <t>land_without_scrub</t>
         </is>
       </c>
     </row>
@@ -13977,7 +13977,7 @@
       </c>
       <c r="B1129" t="inlineStr">
         <is>
-          <t>grassland</t>
+          <t>settlement</t>
         </is>
       </c>
     </row>
@@ -14001,7 +14001,7 @@
       </c>
       <c r="B1131" t="inlineStr">
         <is>
-          <t>road_n_railway</t>
+          <t>grassland</t>
         </is>
       </c>
     </row>
@@ -14073,7 +14073,7 @@
       </c>
       <c r="B1137" t="inlineStr">
         <is>
-          <t>river</t>
+          <t>crop</t>
         </is>
       </c>
     </row>
@@ -14253,7 +14253,7 @@
       </c>
       <c r="B1152" t="inlineStr">
         <is>
-          <t>river</t>
+          <t>land_without_scrub</t>
         </is>
       </c>
     </row>
@@ -14325,7 +14325,7 @@
       </c>
       <c r="B1158" t="inlineStr">
         <is>
-          <t>grassland</t>
+          <t>land_without_scrub</t>
         </is>
       </c>
     </row>
@@ -14457,7 +14457,7 @@
       </c>
       <c r="B1169" t="inlineStr">
         <is>
-          <t>road_n_railway</t>
+          <t>river</t>
         </is>
       </c>
     </row>
@@ -14469,7 +14469,7 @@
       </c>
       <c r="B1170" t="inlineStr">
         <is>
-          <t>crop</t>
+          <t>river</t>
         </is>
       </c>
     </row>
@@ -14493,7 +14493,7 @@
       </c>
       <c r="B1172" t="inlineStr">
         <is>
-          <t>road_n_railway</t>
+          <t>grassland</t>
         </is>
       </c>
     </row>
@@ -14697,7 +14697,7 @@
       </c>
       <c r="B1189" t="inlineStr">
         <is>
-          <t>crop</t>
+          <t>river</t>
         </is>
       </c>
     </row>
@@ -14709,7 +14709,7 @@
       </c>
       <c r="B1190" t="inlineStr">
         <is>
-          <t>crop</t>
+          <t>river</t>
         </is>
       </c>
     </row>
@@ -14829,7 +14829,7 @@
       </c>
       <c r="B1200" t="inlineStr">
         <is>
-          <t>road_n_railway</t>
+          <t>river</t>
         </is>
       </c>
     </row>
@@ -14841,7 +14841,7 @@
       </c>
       <c r="B1201" t="inlineStr">
         <is>
-          <t>road_n_railway</t>
+          <t>land_without_scrub</t>
         </is>
       </c>
     </row>
@@ -14937,7 +14937,7 @@
       </c>
       <c r="B1209" t="inlineStr">
         <is>
-          <t>land_without_scrub</t>
+          <t>grassland</t>
         </is>
       </c>
     </row>
@@ -14985,7 +14985,7 @@
       </c>
       <c r="B1213" t="inlineStr">
         <is>
-          <t>crop</t>
+          <t>river</t>
         </is>
       </c>
     </row>
@@ -15429,7 +15429,7 @@
       </c>
       <c r="B1250" t="inlineStr">
         <is>
-          <t>road_n_railway</t>
+          <t>river</t>
         </is>
       </c>
     </row>
@@ -15441,7 +15441,7 @@
       </c>
       <c r="B1251" t="inlineStr">
         <is>
-          <t>land_without_scrub</t>
+          <t>river</t>
         </is>
       </c>
     </row>
@@ -15921,7 +15921,7 @@
       </c>
       <c r="B1291" t="inlineStr">
         <is>
-          <t>road_n_railway</t>
+          <t>river</t>
         </is>
       </c>
     </row>
@@ -15957,7 +15957,7 @@
       </c>
       <c r="B1294" t="inlineStr">
         <is>
-          <t>crop</t>
+          <t>road_n_railway</t>
         </is>
       </c>
     </row>
@@ -15993,7 +15993,7 @@
       </c>
       <c r="B1297" t="inlineStr">
         <is>
-          <t>grassland</t>
+          <t>land_without_scrub</t>
         </is>
       </c>
     </row>
@@ -16137,7 +16137,7 @@
       </c>
       <c r="B1309" t="inlineStr">
         <is>
-          <t>settlement</t>
+          <t>river</t>
         </is>
       </c>
     </row>
@@ -16269,7 +16269,7 @@
       </c>
       <c r="B1320" t="inlineStr">
         <is>
-          <t>grassland</t>
+          <t>road_n_railway</t>
         </is>
       </c>
     </row>
@@ -16281,7 +16281,7 @@
       </c>
       <c r="B1321" t="inlineStr">
         <is>
-          <t>road_n_railway</t>
+          <t>land_without_scrub</t>
         </is>
       </c>
     </row>
@@ -16329,7 +16329,7 @@
       </c>
       <c r="B1325" t="inlineStr">
         <is>
-          <t>river</t>
+          <t>grassland</t>
         </is>
       </c>
     </row>
@@ -16341,7 +16341,7 @@
       </c>
       <c r="B1326" t="inlineStr">
         <is>
-          <t>forest</t>
+          <t>tank</t>
         </is>
       </c>
     </row>
@@ -16485,7 +16485,7 @@
       </c>
       <c r="B1338" t="inlineStr">
         <is>
-          <t>crop</t>
+          <t>road_n_railway</t>
         </is>
       </c>
     </row>
@@ -16701,7 +16701,7 @@
       </c>
       <c r="B1356" t="inlineStr">
         <is>
-          <t>grassland</t>
+          <t>tank</t>
         </is>
       </c>
     </row>
@@ -16713,7 +16713,7 @@
       </c>
       <c r="B1357" t="inlineStr">
         <is>
-          <t>settlement</t>
+          <t>road_n_railway</t>
         </is>
       </c>
     </row>
@@ -16785,7 +16785,7 @@
       </c>
       <c r="B1363" t="inlineStr">
         <is>
-          <t>forest</t>
+          <t>agriculture</t>
         </is>
       </c>
     </row>
@@ -16857,7 +16857,7 @@
       </c>
       <c r="B1369" t="inlineStr">
         <is>
-          <t>land_without_scrub</t>
+          <t>crop</t>
         </is>
       </c>
     </row>
@@ -16917,7 +16917,7 @@
       </c>
       <c r="B1374" t="inlineStr">
         <is>
-          <t>forest</t>
+          <t>land_without_scrub</t>
         </is>
       </c>
     </row>
@@ -16977,7 +16977,7 @@
       </c>
       <c r="B1379" t="inlineStr">
         <is>
-          <t>agriculture</t>
+          <t>land_without_scrub</t>
         </is>
       </c>
     </row>
@@ -17049,7 +17049,7 @@
       </c>
       <c r="B1385" t="inlineStr">
         <is>
-          <t>river</t>
+          <t>land_without_scrub</t>
         </is>
       </c>
     </row>
@@ -17133,7 +17133,7 @@
       </c>
       <c r="B1392" t="inlineStr">
         <is>
-          <t>land_without_scrub</t>
+          <t>grassland</t>
         </is>
       </c>
     </row>
@@ -17457,7 +17457,7 @@
       </c>
       <c r="B1419" t="inlineStr">
         <is>
-          <t>river</t>
+          <t>land_without_scrub</t>
         </is>
       </c>
     </row>
@@ -17469,7 +17469,7 @@
       </c>
       <c r="B1420" t="inlineStr">
         <is>
-          <t>land_without_scrub</t>
+          <t>road_n_railway</t>
         </is>
       </c>
     </row>
@@ -17565,7 +17565,7 @@
       </c>
       <c r="B1428" t="inlineStr">
         <is>
-          <t>river</t>
+          <t>crop</t>
         </is>
       </c>
     </row>
@@ -17589,7 +17589,7 @@
       </c>
       <c r="B1430" t="inlineStr">
         <is>
-          <t>crop</t>
+          <t>road_n_railway</t>
         </is>
       </c>
     </row>
